--- a/Test_Suite/app_persistent.xlsx
+++ b/Test_Suite/app_persistent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA099276-7BFC-4126-9707-CB41352D8E90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB8534C-905E-47C0-BEF9-C1BEF997B29F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,22 +37,22 @@
     <t>Y</t>
   </si>
   <si>
-    <t>CommonUtils.Reboot()</t>
-  </si>
-  <si>
-    <t>CommonUtils.SwitchToAdmin()</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>CommonUtils.SwitchToUser()</t>
-  </si>
-  <si>
     <t>Shell_Application().create('persistent')</t>
   </si>
   <si>
     <t>Shell_Application().check('persistent')</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.SwitchToUser()</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.Reboot()</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.SwitchToAdmin()</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,13 +410,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -424,10 +424,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -435,23 +435,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
